--- a/recipes.xlsx
+++ b/recipes.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="LFV Elimination List" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14015" uniqueCount="70">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -24,6 +25,204 @@
   </si>
   <si>
     <t>Tag</t>
+  </si>
+  <si>
+    <t>A Checkerboard Of Roses ( Flower Arrangements)</t>
+  </si>
+  <si>
+    <t>37154</t>
+  </si>
+  <si>
+    <t>A Truly Delectable Bunch ( Flower Arrangements)</t>
+  </si>
+  <si>
+    <t>37261</t>
+  </si>
+  <si>
+    <t>A-bun-dantly Creative ( Flower Arrangements)</t>
+  </si>
+  <si>
+    <t>37167</t>
+  </si>
+  <si>
+    <t>Aam Chana Achar, Rajasthani Pickle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3904 </t>
+  </si>
+  <si>
+    <t>Aam ka Achaar, Mango Pickle, Punjabi Achar</t>
+  </si>
+  <si>
+    <t>30931</t>
+  </si>
+  <si>
+    <t>Aam Ke Pakode, Mango Bhajiya</t>
+  </si>
+  <si>
+    <t>36291</t>
+  </si>
+  <si>
+    <t>Aam ki Katki ka Muraba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3427 </t>
+  </si>
+  <si>
+    <t>Aam ki Launji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3901 </t>
+  </si>
+  <si>
+    <t>Aam Lassi Slush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2848 </t>
+  </si>
+  <si>
+    <t>Abc Juice, Apple Beet Carrot Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6201 </t>
+  </si>
+  <si>
+    <t>Achaari Aloo Roll ( Wraps and Rolls)</t>
+  </si>
+  <si>
+    <t>32665</t>
+  </si>
+  <si>
+    <t>Achaari Paneer Tikka</t>
+  </si>
+  <si>
+    <t>32939</t>
+  </si>
+  <si>
+    <t>Achaari Paneer Warqi</t>
+  </si>
+  <si>
+    <t>36293</t>
+  </si>
+  <si>
+    <t>Achar Dip, Achari Dip</t>
+  </si>
+  <si>
+    <t>22718</t>
+  </si>
+  <si>
+    <t>CARROT CUBES</t>
+  </si>
+  <si>
+    <t>ALMONDS (BADAM)</t>
+  </si>
+  <si>
+    <t>[ALMONDS (BADAM), GHEE, SALT, GHEE]</t>
+  </si>
+  <si>
+    <t>[ALMONDS (BADAM), ORGANIC HONEY, HONEY, CINNAMON (DALCHINI), VANILLA EXTRACT, VANILLA ESSENCE]</t>
+  </si>
+  <si>
+    <t>[ALMONDS (BADAM), WATER, VANILLA ESSENCE]</t>
+  </si>
+  <si>
+    <t>[MANGOES]</t>
+  </si>
+  <si>
+    <t>[SPINACH (PALAK), CHOPPED CORIANDER (DHANIA), CUCUMBER, CHOPPED AMLA (INDIAN GOOSEBERRIES)]</t>
+  </si>
+  <si>
+    <t>[DRIED FIGS (ANJEER), CHOPPED BANANAS, LOW FAT CURDS (DAHI), CURD (DAHI), VANILLA EXTRACT, VANILLA ESSENCE, ICE-CUBES]</t>
+  </si>
+  <si>
+    <t>[CHOPPED PAPAYA, ORANGE SEGMENTS, CHOPPED BANANAS, VANILLA EXTRACT, VANILLA ESSENCE, ICE-CUBES]</t>
+  </si>
+  <si>
+    <t>[CHOPPED SPINACH (PALAK), CHOPPED TOMATOES, APPLE CIDER VINEGAR]</t>
+  </si>
+  <si>
+    <t>[MEDIUM SIZED APPLES, ROUGHLY CHOPPED, BLACK GRAPES, STRAWBERRIES, CHOPPED BEETROOT, ICE]</t>
+  </si>
+  <si>
+    <t>[CHOPPED APPLE]</t>
+  </si>
+  <si>
+    <t>[APPLE STICKS, LEMON JUICE, SALT]</t>
+  </si>
+  <si>
+    <t>[GRATED APPLES]</t>
+  </si>
+  <si>
+    <t>[ICEBERG LETTUCE, TORN INTO PIECES, CHERRY TOMATOES, HALVED, CUCUMBER CUBES, GREEN OLIVES, BLACK OLIVES, CHOPPED MINT LEAVES (PHUDINA), LEMON JUICE, BAHARAT, POMEGRANATE (ANARDANA) POWDER, SALT]</t>
+  </si>
+  <si>
+    <t>[LEMON JUICE, BAHARAT POWDER, POMEGRANATE SEEDS (ANARDANA ) POWDER, SALT, ICEBERG LETTUCE, CHERRY TOMATOES, CUCUMBER CUBES, OLIVES, BLACK OLIVES, CHOPPED MINT LEAVES (PHUDINA)]</t>
+  </si>
+  <si>
+    <t>[CHOPPED DARK CHOCOLATE, CHOPPED RIPED AVOCADO, CHOCOLATE CURLS]</t>
+  </si>
+  <si>
+    <t>[AVOCADO, GREEK YOGHURT, HUNG CURDS (CHAKKA DAHI), CHOPPED SHALLOTS, LEMON JUICE, SEA SALT]</t>
+  </si>
+  <si>
+    <t>[AVOCADO CUBES, GRAPEFRUIT SEGMENTS, SLICED STRAWBERRIES, HONEY, SALT, FRESHLY GROUND BLACK PEPPER (KALIMIRCH)]</t>
+  </si>
+  <si>
+    <t>[AVOCADO CUBES, CHOPPED KALE, MANGO PULP, ICE]</t>
+  </si>
+  <si>
+    <t>[CHOPPED RIPE AVOCADO]</t>
+  </si>
+  <si>
+    <t>[CHOPPED AVOCADO, SLICED CAPSICUM, TOMATO STRIPS, SLICED AND BLANCHED BABY CORN, CUCUMBER STRIPS, HONEY, LEMON JUICE, CHOPPED MINT LEAVES (PHUDINA), SALT, FRESHLY GROUND BLACK PEPPER (KALIMIRCH)]</t>
+  </si>
+  <si>
+    <t>[CHOPPED RIPED AVOCADO, CHOPPED SPINACH (PALAK), CHOPPED PEARS, CHOPPED APPLES]</t>
+  </si>
+  <si>
+    <t>[MANGOES, SALT]</t>
+  </si>
+  <si>
+    <t>[BABY SPINACH, APPLE CUBES, WHISKED LOW FAT CURDS, LEMON JUICE, LEMON RIND, CHOPPED BASIL, CHOPPED CELERY (AJMODA), HONEY, SALT, FRESHLY GROUND BLACK PEPPER (KALIMIRCH), ROASTED SUNFLOWER SEEDS (SURAJMUKHI KE BEEJ)]</t>
+  </si>
+  <si>
+    <t>[BADAM BARFI, EDIBLE SILVER LEAF (VARK), YELLOW FOOD COLOUR, PISTACHIOS, SLIVERED]</t>
+  </si>
+  <si>
+    <t>[BAJRA (BLACK MILLET), YELLOW MOONG DAL (SPLIT YELLOW GRAM), GHEE, SALT, CUMIN SEEDS (JEERA), ASAFOETIDA (HING), TURMERIC POWDER (HALDI), ONION RINGS, CORIANDER (DHANIA)]</t>
+  </si>
+  <si>
+    <t>[BAJRA (BLACK MILLET) FLOUR, WHISKED LOW FAT CURDS, GHEE, ASAFOETIDA (HING), SALT, CHOPPED CORIANDER (DHANIA)]</t>
+  </si>
+  <si>
+    <t>[BAJRA (BLACK MILLET), YELLOW MOONG DAL (SPLIT YELLOW GRAM), SALT, GHEE, CUMIN SEEDS (JEERA), ASAFOETIDA (HING), TURMERIC POWDER (HALDI)]</t>
+  </si>
+  <si>
+    <t>[BAJRA (BLACK MILLET), YELLOW MOONG DAL (SPLIT YELLOW GRAM), GHEE, CUMIN SEEDS (JEERA), TURMERIC POWDER (HALDI), ASAFOETIDA (HING), SALT]</t>
+  </si>
+  <si>
+    <t>[BAJRA (BLACK MILLET), GREEN MOONG DAL (SPLIT GREEN GRAM), SALT, GHEE, CUMIN SEEDS (JEERA), ASAFOETIDA (HING), TURMERIC POWDER (HALDI), CURD]</t>
+  </si>
+  <si>
+    <t>[BEAN SPROUTS, CHOPPED DILL LEAVES, CHOPPED TOMATOES, LEMON JUICE, CHOPPED BASIL, SALT]</t>
+  </si>
+  <si>
+    <t>[CHOPPED BEETROOT, CHOPPED CARROT]</t>
+  </si>
+  <si>
+    <t>[BEETROOT CUBES, CARROT CUBES, CHOPPED PARSLEY, CHOPPED CELERY (AJMODA), BLACK SALT (SANCHAL), ICE-CUBES]</t>
+  </si>
+  <si>
+    <t>[CHOPPED BEETROOT]</t>
+  </si>
+  <si>
+    <t>[GHEE, CAULIFLOWER FLORETS, GREEN PEAS, CHOPPED CARROT, CHOPPED FRENCH BEANS, BROWN RICE, YELLOW MOONG DAL (SPLIT YELLOW GRAM), GHEE, CLOVE (LAUNG / LAVANG), CINNAMON (DALCHINI), CHOPPED TOMATOES, CHOPPED GREEN CHILLIES, TURMERIC POWDER (HALDI), GARAM MASALA, SALT, CURD (DAHI)]</t>
+  </si>
+  <si>
+    <t>[BROKEN WHEAT (DALIA), CHOPPED CARROTS, CHOPPED TOMATOES, CHOPPED COLOURED CAPSICUM, CHOPPED SPRING ONIONS WHITES, CHOPPED MINT LEAVES (PHUDINA), LEMON JUICE, SALT, LOW FAT CURDS (DAHI), GARLIC (LEHSUN) PASTE, SALT]</t>
+  </si>
+  <si>
+    <t>[WHOLE WHEAT MEXICAN TORTILLAS, REFRIED BEANS, TOMATO SALSA, CHOPPED SPRING ONIONS WHITES, GREENS, SHREDDED CABBAGE]</t>
   </si>
 </sst>
 </file>
@@ -68,7 +267,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -88,6 +287,136 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
